--- a/ResultsByUHF20200623/DailyProjections_citywide20200623.xlsx
+++ b/ResultsByUHF20200623/DailyProjections_citywide20200623.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>981 (663, 1417)</t>
+          <t>947 (629, 1388)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>163 (127, 219)</t>
+          <t>160 (114, 218)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16 (5, 39)</t>
+          <t>16 (5, 33)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11 (3, 26)</t>
+          <t>11 (3, 24)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>88 (57, 131)</t>
+          <t>89 (50, 129)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>69 (21, 112)</t>
+          <t>70 (26, 110)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0 (0, 3)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>934 (621, 1441)</t>
+          <t>876 (563, 1328)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>154 (115, 214)</t>
+          <t>148 (109, 208)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15 (4, 37)</t>
+          <t>15 (4, 32)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>10 (2, 23)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,17 +565,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1 (0, 1)</t>
+          <t>1 (0, 2)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>85 (52, 129)</t>
+          <t>84 (48, 130)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>69 (23, 110)</t>
+          <t>66 (24, 107)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>906 (572, 1483)</t>
+          <t>799 (505, 1294)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144 (107, 210)</t>
+          <t>138 (99, 201)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14 (4, 36)</t>
+          <t>12 (3, 28)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8 (3, 21)</t>
+          <t>10 (2, 21)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1 (0, 1)</t>
+          <t>1 (0, 2)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>82 (44, 125)</t>
+          <t>78 (47, 125)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>69 (22, 107)</t>
+          <t>64 (22, 104)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>880 (521, 1510)</t>
+          <t>737 (443, 1259)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>135 (103, 212)</t>
+          <t>126 (89, 196)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12 (3, 32)</t>
+          <t>10 (3, 25)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6 (3, 20)</t>
+          <t>9 (2, 19)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>81 (43, 122)</t>
+          <t>77 (45, 118)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>66 (23, 101)</t>
+          <t>64 (20, 101)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>865 (487, 1565)</t>
+          <t>683 (390, 1241)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>133 (96, 213)</t>
+          <t>120 (82, 186)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11 (3, 29)</t>
+          <t>10 (2, 24)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6 (2, 20)</t>
+          <t>6 (2, 18)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>81 (42, 119)</t>
+          <t>75 (43, 116)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>62 (20, 100)</t>
+          <t>60 (18, 97)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>842 (456, 1614)</t>
+          <t>646 (347, 1228)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>130 (88, 214)</t>
+          <t>113 (69, 182)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8 (3, 28)</t>
+          <t>9 (2, 23)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6 (2, 18)</t>
+          <t>4 (2, 15)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>82 (37, 114)</t>
+          <t>73 (39, 113)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>60 (18, 96)</t>
+          <t>56 (18, 92)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>832 (415, 1663)</t>
+          <t>609 (310, 1208)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>127 (81, 220)</t>
+          <t>108 (64, 174)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6 (2, 25)</t>
+          <t>5 (2, 20)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5 (2, 16)</t>
+          <t>4 (2, 13)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>79 (34, 113)</t>
+          <t>72 (36, 107)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>58 (18, 93)</t>
+          <t>53 (20, 88)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>835 (396, 1740)</t>
+          <t>586 (280, 1219)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>123 (74, 224)</t>
+          <t>104 (54, 172)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6 (2, 24)</t>
+          <t>5 (2, 14)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4 (1, 15)</t>
+          <t>3 (1, 12)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>76 (34, 108)</t>
+          <t>71 (33, 107)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>53 (18, 92)</t>
+          <t>49 (18, 85)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>844 (371, 1846)</t>
+          <t>572 (252, 1238)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>122 (67, 228)</t>
+          <t>99 (51, 167)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5 (2, 24)</t>
+          <t>3 (2, 13)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4 (0, 15)</t>
+          <t>2 (0, 12)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>73 (33, 104)</t>
+          <t>68 (31, 103)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>49 (17, 88)</t>
+          <t>48 (18, 84)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>848 (351, 1942)</t>
+          <t>558 (235, 1252)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>124 (63, 234)</t>
+          <t>97 (46, 164)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4 (1, 24)</t>
+          <t>3 (0, 12)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3 (0, 16)</t>
+          <t>2 (0, 10)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>69 (34, 99)</t>
+          <t>68 (29, 100)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>44 (16, 88)</t>
+          <t>43 (18, 83)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>855 (335, 2047)</t>
+          <t>545 (213, 1269)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>128 (60, 247)</t>
+          <t>85 (43, 165)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4 (0, 24)</t>
+          <t>2 (0, 12)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3 (0, 16)</t>
+          <t>2 (0, 9)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>68 (31, 98)</t>
+          <t>64 (24, 98)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>43 (16, 87)</t>
+          <t>41 (18, 82)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>871 (323, 2172)</t>
+          <t>520 (195, 1286)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>128 (59, 255)</t>
+          <t>81 (41, 164)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3 (0, 24)</t>
+          <t>2 (0, 12)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3 (0, 17)</t>
+          <t>2 (0, 9)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>62 (27, 94)</t>
+          <t>60 (23, 95)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>41 (16, 85)</t>
+          <t>39 (18, 81)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,22 +1382,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>870 (301, 2293)</t>
+          <t>501 (181, 1309)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>127 (52, 269)</t>
+          <t>74 (36, 164)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3 (0, 27)</t>
+          <t>2 (0, 11)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2 (0, 18)</t>
+          <t>1 (0, 7)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1412,17 +1412,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>59 (24, 93)</t>
+          <t>55 (20, 91)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>37 (15, 85)</t>
+          <t>30 (18, 77)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>886 (292, 2429)</t>
+          <t>496 (168, 1330)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>130 (51, 283)</t>
+          <t>70 (35, 164)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3 (0, 27)</t>
+          <t>2 (0, 10)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2 (0, 19)</t>
+          <t>0 (0, 5)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1489,17 +1489,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>51 (23, 90)</t>
+          <t>53 (19, 86)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>33 (13, 82)</t>
+          <t>26 (17, 74)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1536,47 +1536,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1266 (830, 1923)</t>
+          <t>1313 (860, 2003)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>165 (119, 225)</t>
+          <t>170 (123, 235)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>54 (25, 94)</t>
+          <t>75 (41, 121)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>37 (15, 79)</t>
+          <t>60 (31, 107)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>0 (0, 1)</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0 (0, 1)</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3 (1, 9)</t>
+          <t>4 (1, 12)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>108 (68, 161)</t>
+          <t>126 (79, 188)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>87 (40, 135)</t>
+          <t>97 (50, 153)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 4)</t>
         </is>
       </c>
     </row>
@@ -1613,22 +1613,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1212 (776, 1937)</t>
+          <t>1207 (760, 1919)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>155 (112, 223)</t>
+          <t>157 (111, 227)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>51 (22, 91)</t>
+          <t>72 (40, 119)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>35 (12, 75)</t>
+          <t>60 (31, 103)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1643,27 +1643,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3 (1, 8)</t>
+          <t>4 (1, 11)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>109 (66, 159)</t>
+          <t>122 (79, 184)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>87 (34, 135)</t>
+          <t>98 (50, 156)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0 (0, 4)</t>
+          <t>0 (0, 5)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1175 (716, 1991)</t>
+          <t>1101 (676, 1875)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>149 (102, 221)</t>
+          <t>147 (100, 222)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>47 (21, 87)</t>
+          <t>68 (36, 116)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>33 (10, 72)</t>
+          <t>55 (31, 101)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1715,32 +1715,32 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3 (0, 8)</t>
+          <t>4 (1, 10)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>105 (67, 156)</t>
+          <t>120 (80, 182)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>87 (35, 133)</t>
+          <t>100 (50, 153)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0 (0, 4)</t>
+          <t>0 (0, 5)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1767,52 +1767,52 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1148 (676, 2046)</t>
+          <t>1028 (597, 1836)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>142 (94, 218)</t>
+          <t>144 (88, 211)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>44 (19, 85)</t>
+          <t>66 (35, 113)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>33 (10, 69)</t>
+          <t>53 (30, 98)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3 (0, 7)</t>
+          <t>4 (1, 10)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>104 (66, 155)</t>
+          <t>117 (78, 178)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>83 (35, 133)</t>
+          <t>102 (50, 154)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0 (0, 3)</t>
+          <t>0 (0, 4)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1844,52 +1844,52 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1120 (620, 2121)</t>
+          <t>966 (530, 1832)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>138 (88, 218)</t>
+          <t>131 (80, 207)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42 (15, 83)</t>
+          <t>62 (33, 106)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32 (10, 69)</t>
+          <t>51 (28, 92)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3 (0, 5)</t>
+          <t>4 (1, 10)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>99 (63, 150)</t>
+          <t>115 (76, 178)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>83 (37, 130)</t>
+          <t>99 (48, 155)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0 (0, 2)</t>
+          <t>0 (0, 4)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1103 (584, 2199)</t>
+          <t>905 (472, 1801)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>136 (85, 225)</t>
+          <t>122 (75, 200)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>37 (14, 84)</t>
+          <t>59 (31, 105)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>29 (9, 67)</t>
+          <t>47 (25, 88)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3 (0, 5)</t>
+          <t>3 (1, 9)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>99 (60, 148)</t>
+          <t>113 (70, 171)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>83 (37, 129)</t>
+          <t>96 (47, 154)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>0 (0, 3)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>0 (0, 2)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1090 (542, 2258)</t>
+          <t>855 (424, 1785)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>138 (85, 228)</t>
+          <t>111 (71, 193)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>37 (11, 82)</t>
+          <t>54 (30, 104)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>28 (9, 68)</t>
+          <t>43 (20, 83)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3 (0, 5)</t>
+          <t>3 (1, 9)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>97 (56, 145)</t>
+          <t>114 (65, 169)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>80 (36, 126)</t>
+          <t>96 (48, 151)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>0 (0, 3)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>0 (0, 2)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2075,27 +2075,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1087 (512, 2370)</t>
+          <t>820 (388, 1800)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>136 (80, 230)</t>
+          <t>105 (65, 192)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>36 (10, 85)</t>
+          <t>48 (25, 97)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28 (8, 68)</t>
+          <t>42 (17, 78)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2105,27 +2105,27 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2 (0, 5)</t>
+          <t>3 (0, 7)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>94 (51, 141)</t>
+          <t>111 (62, 168)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>78 (36, 125)</t>
+          <t>92 (50, 150)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>0 (0, 3)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>0 (0, 2)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2152,27 +2152,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1096 (491, 2513)</t>
+          <t>794 (348, 1830)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>136 (75, 239)</t>
+          <t>94 (59, 185)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>33 (9, 86)</t>
+          <t>44 (20, 94)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>26 (5, 68)</t>
+          <t>38 (16, 77)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2182,17 +2182,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1 (0, 5)</t>
+          <t>3 (0, 6)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>93 (51, 142)</t>
+          <t>111 (60, 166)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>75 (36, 121)</t>
+          <t>87 (49, 149)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2229,27 +2229,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1110 (470, 2649)</t>
+          <t>768 (325, 1847)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>135 (70, 251)</t>
+          <t>88 (49, 182)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>32 (9, 87)</t>
+          <t>41 (17, 89)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23 (3, 71)</t>
+          <t>36 (12, 76)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0 (0, 4)</t>
+          <t>2 (0, 6)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>94 (52, 140)</t>
+          <t>111 (60, 163)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>71 (39, 119)</t>
+          <t>84 (49, 148)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2306,27 +2306,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1133 (447, 2806)</t>
+          <t>739 (297, 1870)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>132 (68, 262)</t>
+          <t>85 (46, 181)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30 (5, 90)</t>
+          <t>37 (15, 86)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20 (3, 74)</t>
+          <t>36 (8, 74)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0 (0, 0)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2336,27 +2336,27 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0 (0, 4)</t>
+          <t>2 (0, 5)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>94 (53, 141)</t>
+          <t>108 (60, 161)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>72 (39, 116)</t>
+          <t>84 (48, 145)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1139 (428, 2976)</t>
+          <t>714 (267, 1901)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>132 (64, 274)</t>
+          <t>83 (41, 183)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29 (5, 94)</t>
+          <t>36 (10, 85)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19 (3, 75)</t>
+          <t>31 (5, 74)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2413,27 +2413,27 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0 (0, 5)</t>
+          <t>2 (0, 5)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>94 (51, 137)</t>
+          <t>104 (58, 160)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>71 (39, 116)</t>
+          <t>83 (49, 143)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2460,22 +2460,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1147 (412, 3146)</t>
+          <t>697 (229, 1923)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>135 (60, 298)</t>
+          <t>83 (35, 182)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27 (3, 96)</t>
+          <t>36 (6, 84)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18 (3, 77)</t>
+          <t>30 (4, 74)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2490,27 +2490,27 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0 (0, 5)</t>
+          <t>2 (0, 5)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>94 (51, 136)</t>
+          <t>99 (59, 159)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>70 (34, 113)</t>
+          <t>81 (46, 141)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2537,22 +2537,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1169 (390, 3337)</t>
+          <t>685 (209, 1941)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>139 (58, 317)</t>
+          <t>80 (31, 183)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23 (3, 98)</t>
+          <t>33 (5, 84)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>17 (3, 81)</t>
+          <t>27 (3, 74)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2567,27 +2567,27 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0 (0, 5)</t>
+          <t>0 (0, 4)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>90 (49, 131)</t>
+          <t>97 (57, 160)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>71 (30, 112)</t>
+          <t>80 (44, 140)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0 (0, 1)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1705 (1152, 2488)</t>
+          <t>1654 (1116, 2419)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1408 (863, 2171)</t>
+          <t>1373 (842, 2113)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>267 (175, 412)</t>
+          <t>254 (163, 400)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>212 (146, 306)</t>
+          <t>208 (137, 294)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1705 (1152, 2488)</t>
+          <t>1654 (1116, 2419)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1408 (863, 2171)</t>
+          <t>1373 (842, 2113)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>267 (175, 412)</t>
+          <t>254 (163, 400)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>212 (146, 306)</t>
+          <t>208 (137, 294)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1649 (1102, 2411)</t>
+          <t>1597 (1074, 2346)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1363 (826, 2099)</t>
+          <t>1321 (813, 2039)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>258 (172, 398)</t>
+          <t>249 (160, 385)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>206 (136, 294)</t>
+          <t>201 (129, 284)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1649 (1102, 2411)</t>
+          <t>1597 (1074, 2346)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1363 (826, 2099)</t>
+          <t>1321 (813, 2039)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>258 (172, 398)</t>
+          <t>249 (160, 385)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>206 (136, 294)</t>
+          <t>201 (129, 284)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1586 (1058, 2336)</t>
+          <t>1539 (1034, 2269)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1312 (791, 2025)</t>
+          <t>1275 (777, 1980)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>247 (168, 385)</t>
+          <t>241 (156, 367)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>197 (130, 285)</t>
+          <t>195 (119, 275)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1586 (1058, 2336)</t>
+          <t>1539 (1034, 2269)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1312 (791, 2025)</t>
+          <t>1275 (777, 1980)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>247 (168, 385)</t>
+          <t>241 (156, 367)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>197 (130, 285)</t>
+          <t>195 (119, 275)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1530 (1022, 2259)</t>
+          <t>1481 (991, 2188)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1264 (767, 1959)</t>
+          <t>1220 (743, 1906)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>241 (162, 374)</t>
+          <t>231 (150, 355)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>192 (121, 277)</t>
+          <t>185 (115, 266)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1530 (1022, 2259)</t>
+          <t>1481 (991, 2188)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1264 (767, 1959)</t>
+          <t>1220 (743, 1906)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>241 (162, 374)</t>
+          <t>231 (150, 355)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>192 (121, 277)</t>
+          <t>185 (115, 266)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1474 (979, 2179)</t>
+          <t>1419 (950, 2111)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1222 (736, 1904)</t>
+          <t>1181 (716, 1841)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>230 (154, 369)</t>
+          <t>222 (146, 348)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>188 (112, 270)</t>
+          <t>177 (107, 254)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1474 (979, 2179)</t>
+          <t>1419 (950, 2111)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1222 (736, 1904)</t>
+          <t>1181 (716, 1841)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>230 (154, 369)</t>
+          <t>222 (146, 348)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>188 (112, 270)</t>
+          <t>177 (107, 254)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1416 (946, 2118)</t>
+          <t>1362 (901, 2036)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1178 (703, 1852)</t>
+          <t>1141 (677, 1782)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>225 (146, 349)</t>
+          <t>216 (134, 334)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>184 (104, 258)</t>
+          <t>166 (99, 246)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1416 (946, 2118)</t>
+          <t>1362 (901, 2036)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1178 (703, 1852)</t>
+          <t>1141 (677, 1782)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>225 (146, 349)</t>
+          <t>216 (134, 334)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>184 (104, 258)</t>
+          <t>166 (99, 246)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1361 (898, 2053)</t>
+          <t>1309 (864, 1968)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1128 (668, 1792)</t>
+          <t>1083 (640, 1722)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>219 (134, 332)</t>
+          <t>210 (124, 313)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>177 (97, 248)</t>
+          <t>164 (90, 233)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1361 (898, 2053)</t>
+          <t>1309 (864, 1968)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1128 (668, 1792)</t>
+          <t>1083 (640, 1722)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>219 (134, 332)</t>
+          <t>210 (124, 313)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>177 (97, 248)</t>
+          <t>164 (90, 233)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1312 (857, 1990)</t>
+          <t>1254 (822, 1907)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1083 (641, 1735)</t>
+          <t>1038 (607, 1659)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>214 (127, 318)</t>
+          <t>202 (116, 302)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>173 (90, 238)</t>
+          <t>154 (88, 223)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1312 (857, 1990)</t>
+          <t>1254 (822, 1907)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1083 (641, 1735)</t>
+          <t>1038 (607, 1659)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>214 (127, 318)</t>
+          <t>202 (116, 302)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>173 (90, 238)</t>
+          <t>154 (88, 223)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1262 (820, 1930)</t>
+          <t>1196 (782, 1835)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1043 (608, 1689)</t>
+          <t>992 (583, 1606)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>202 (118, 310)</t>
+          <t>194 (105, 292)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>166 (84, 231)</t>
+          <t>147 (82, 219)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1262 (820, 1930)</t>
+          <t>1196 (782, 1835)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1043 (608, 1689)</t>
+          <t>992 (583, 1606)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>202 (118, 310)</t>
+          <t>194 (105, 292)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>166 (84, 231)</t>
+          <t>147 (82, 219)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1213 (787, 1871)</t>
+          <t>1150 (733, 1766)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1002 (583, 1638)</t>
+          <t>947 (546, 1550)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>195 (110, 301)</t>
+          <t>185 (101, 281)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>156 (78, 223)</t>
+          <t>140 (73, 212)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1213 (787, 1871)</t>
+          <t>1150 (733, 1766)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1002 (583, 1638)</t>
+          <t>947 (546, 1550)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>195 (110, 301)</t>
+          <t>185 (101, 281)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>156 (78, 223)</t>
+          <t>140 (73, 212)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1169 (740, 1809)</t>
+          <t>1090 (691, 1697)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>964 (550, 1586)</t>
+          <t>903 (504, 1485)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>190 (101, 291)</t>
+          <t>177 (93, 271)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>147 (73, 220)</t>
+          <t>130 (68, 205)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1169 (740, 1809)</t>
+          <t>1090 (691, 1697)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>964 (550, 1586)</t>
+          <t>903 (504, 1485)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>190 (101, 291)</t>
+          <t>177 (93, 271)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>147 (73, 220)</t>
+          <t>130 (68, 205)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1116 (704, 1761)</t>
+          <t>1036 (651, 1632)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>925 (517, 1536)</t>
+          <t>868 (473, 1433)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>183 (92, 278)</t>
+          <t>167 (90, 258)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>136 (71, 215)</t>
+          <t>125 (66, 197)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1116 (704, 1761)</t>
+          <t>1036 (651, 1632)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>925 (517, 1536)</t>
+          <t>868 (473, 1433)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>183 (92, 278)</t>
+          <t>167 (90, 258)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>136 (71, 215)</t>
+          <t>125 (66, 197)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1073 (669, 1720)</t>
+          <t>985 (613, 1573)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>891 (492, 1505)</t>
+          <t>817 (448, 1377)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>176 (91, 266)</t>
+          <t>157 (82, 245)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>129 (66, 207)</t>
+          <t>114 (64, 192)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1073 (669, 1720)</t>
+          <t>985 (613, 1573)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>891 (492, 1505)</t>
+          <t>817 (448, 1377)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>176 (91, 266)</t>
+          <t>157 (82, 245)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>129 (66, 207)</t>
+          <t>114 (64, 192)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1035 (633, 1674)</t>
+          <t>933 (579, 1515)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>854 (465, 1474)</t>
+          <t>780 (415, 1321)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>168 (83, 260)</t>
+          <t>147 (76, 238)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>123 (62, 203)</t>
+          <t>105 (54, 183)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1035 (633, 1674)</t>
+          <t>933 (579, 1515)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>854 (465, 1474)</t>
+          <t>780 (415, 1321)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>168 (83, 260)</t>
+          <t>147 (76, 238)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>123 (62, 203)</t>
+          <t>105 (54, 183)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2423 (1654, 3490)</t>
+          <t>2787 (1890, 4062)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2060 (1296, 3087)</t>
+          <t>2386 (1516, 3615)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>346 (224, 527)</t>
+          <t>372 (242, 565)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>281 (192, 400)</t>
+          <t>300 (202, 439)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2423 (1654, 3490)</t>
+          <t>2787 (1890, 4062)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2060 (1296, 3087)</t>
+          <t>2386 (1516, 3615)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>346 (224, 527)</t>
+          <t>372 (242, 565)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>281 (192, 400)</t>
+          <t>300 (202, 439)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2377 (1620, 3423)</t>
+          <t>2746 (1859, 4008)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2016 (1268, 3027)</t>
+          <t>2351 (1493, 3577)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>339 (216, 514)</t>
+          <t>360 (235, 553)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>272 (186, 389)</t>
+          <t>288 (198, 424)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2377 (1620, 3423)</t>
+          <t>2746 (1859, 4008)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2016 (1268, 3027)</t>
+          <t>2351 (1493, 3577)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>339 (216, 514)</t>
+          <t>360 (235, 553)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>272 (186, 389)</t>
+          <t>288 (198, 424)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2326 (1576, 3363)</t>
+          <t>2695 (1828, 3953)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1958 (1230, 2978)</t>
+          <t>2309 (1454, 3523)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>333 (212, 503)</t>
+          <t>355 (229, 540)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>263 (181, 378)</t>
+          <t>284 (192, 421)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2326 (1576, 3363)</t>
+          <t>2695 (1828, 3953)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1958 (1230, 2978)</t>
+          <t>2309 (1454, 3523)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>333 (212, 503)</t>
+          <t>355 (229, 540)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>263 (181, 378)</t>
+          <t>284 (192, 421)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2273 (1534, 3308)</t>
+          <t>2646 (1786, 3900)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1922 (1202, 2926)</t>
+          <t>2269 (1434, 3485)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>324 (206, 486)</t>
+          <t>345 (224, 532)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>259 (176, 369)</t>
+          <t>281 (186, 411)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2273 (1534, 3308)</t>
+          <t>2646 (1786, 3900)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1922 (1202, 2926)</t>
+          <t>2269 (1434, 3485)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>324 (206, 486)</t>
+          <t>345 (224, 532)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>259 (176, 369)</t>
+          <t>281 (186, 411)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2212 (1502, 3243)</t>
+          <t>2594 (1743, 3846)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1881 (1167, 2881)</t>
+          <t>2235 (1404, 3441)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>318 (201, 476)</t>
+          <t>336 (218, 525)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>252 (171, 360)</t>
+          <t>275 (180, 399)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2212 (1502, 3243)</t>
+          <t>2594 (1743, 3846)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1881 (1167, 2881)</t>
+          <t>2235 (1404, 3441)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>318 (201, 476)</t>
+          <t>336 (218, 525)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>252 (171, 360)</t>
+          <t>275 (180, 399)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2170 (1457, 3195)</t>
+          <t>2546 (1701, 3798)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1841 (1130, 2834)</t>
+          <t>2188 (1364, 3399)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>304 (194, 471)</t>
+          <t>330 (212, 507)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>246 (165, 355)</t>
+          <t>272 (167, 397)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2170 (1457, 3195)</t>
+          <t>2546 (1701, 3798)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1841 (1130, 2834)</t>
+          <t>2188 (1364, 3399)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>304 (194, 471)</t>
+          <t>330 (212, 507)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>246 (165, 355)</t>
+          <t>272 (167, 397)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2113 (1413, 3141)</t>
+          <t>2489 (1651, 3741)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1796 (1102, 2792)</t>
+          <t>2139 (1332, 3354)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>298 (192, 463)</t>
+          <t>320 (206, 498)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>238 (156, 346)</t>
+          <t>268 (158, 388)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2113 (1413, 3141)</t>
+          <t>2489 (1651, 3741)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1796 (1102, 2792)</t>
+          <t>2139 (1332, 3354)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>298 (192, 463)</t>
+          <t>320 (206, 498)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>238 (156, 346)</t>
+          <t>268 (158, 388)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2062 (1368, 3099)</t>
+          <t>2433 (1604, 3689)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1758 (1069, 2754)</t>
+          <t>2090 (1289, 3307)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>290 (187, 443)</t>
+          <t>312 (201, 485)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>232 (148, 339)</t>
+          <t>257 (159, 378)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2062 (1368, 3099)</t>
+          <t>2433 (1604, 3689)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1758 (1069, 2754)</t>
+          <t>2090 (1289, 3307)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>290 (187, 443)</t>
+          <t>312 (201, 485)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>232 (148, 339)</t>
+          <t>257 (159, 378)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2012 (1317, 3053)</t>
+          <t>2366 (1549, 3635)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1709 (1030, 2715)</t>
+          <t>2042 (1248, 3253)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>280 (183, 429)</t>
+          <t>303 (196, 474)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>225 (146, 330)</t>
+          <t>253 (157, 365)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2012 (1317, 3053)</t>
+          <t>2366 (1549, 3635)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1709 (1030, 2715)</t>
+          <t>2042 (1248, 3253)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>280 (183, 429)</t>
+          <t>303 (196, 474)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>225 (146, 330)</t>
+          <t>253 (157, 365)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1964 (1271, 3012)</t>
+          <t>2305 (1497, 3580)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1668 (997, 2678)</t>
+          <t>1992 (1203, 3209)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>273 (175, 423)</t>
+          <t>297 (187, 469)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>221 (137, 326)</t>
+          <t>242 (150, 361)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1964 (1271, 3012)</t>
+          <t>2305 (1497, 3580)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1668 (997, 2678)</t>
+          <t>1992 (1203, 3209)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>273 (175, 423)</t>
+          <t>297 (187, 469)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>221 (137, 326)</t>
+          <t>242 (150, 361)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1910 (1225, 2976)</t>
+          <t>2243 (1444, 3526)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1622 (956, 2642)</t>
+          <t>1927 (1156, 3158)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>263 (172, 419)</t>
+          <t>286 (180, 455)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>210 (133, 318)</t>
+          <t>235 (143, 354)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1910 (1225, 2976)</t>
+          <t>2243 (1444, 3526)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1622 (956, 2642)</t>
+          <t>1927 (1156, 3158)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>263 (172, 419)</t>
+          <t>286 (180, 455)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>210 (133, 318)</t>
+          <t>235 (143, 354)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1859 (1178, 2949)</t>
+          <t>2186 (1378, 3464)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1579 (923, 2614)</t>
+          <t>1873 (1101, 3109)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>256 (164, 410)</t>
+          <t>280 (169, 445)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>203 (127, 313)</t>
+          <t>230 (134, 346)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1859 (1178, 2949)</t>
+          <t>2186 (1378, 3464)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1579 (923, 2614)</t>
+          <t>1873 (1101, 3109)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>256 (164, 410)</t>
+          <t>280 (169, 445)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>203 (127, 313)</t>
+          <t>230 (134, 346)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1806 (1122, 2906)</t>
+          <t>2114 (1322, 3413)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1535 (883, 2590)</t>
+          <t>1817 (1050, 3052)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>253 (159, 401)</t>
+          <t>278 (168, 435)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>194 (118, 304)</t>
+          <t>221 (126, 342)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1806 (1122, 2906)</t>
+          <t>2114 (1322, 3413)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1535 (883, 2590)</t>
+          <t>1817 (1050, 3052)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>253 (159, 401)</t>
+          <t>278 (168, 435)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>194 (118, 304)</t>
+          <t>221 (126, 342)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1746 (1069, 2882)</t>
+          <t>2047 (1265, 3361)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1488 (834, 2561)</t>
+          <t>1760 (1006, 3006)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>246 (145, 393)</t>
+          <t>267 (156, 426)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>190 (110, 297)</t>
+          <t>212 (119, 334)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1746 (1069, 2882)</t>
+          <t>2047 (1265, 3361)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1488 (834, 2561)</t>
+          <t>1760 (1006, 3006)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>246 (145, 393)</t>
+          <t>267 (156, 426)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>190 (110, 297)</t>
+          <t>212 (119, 334)</t>
         </is>
       </c>
     </row>
